--- a/mapping/BFO_CAO.xlsx
+++ b/mapping/BFO_CAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>BFO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>CAO_DESC</t>
   </si>
   <si>
+    <t>CAO_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000029</t>
   </si>
   <si>
@@ -182,6 +185,12 @@
   </si>
   <si>
     <t>{'label': 'role'}</t>
+  </si>
+  <si>
+    <t>['B is a site means: b is a three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof. [BFO]']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -552,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,243 +580,288 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
